--- a/data/case1/2/V2_1.xlsx
+++ b/data/case1/2/V2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999456010535</v>
+        <v>0.99999999204813972</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99594434382089814</v>
+        <v>0.99553801280933907</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97789824371312983</v>
+        <v>0.97742543838285245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97043861348077542</v>
+        <v>0.96991336460522382</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96346654874397664</v>
+        <v>0.96288363594276938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94897432996407294</v>
+        <v>0.94700577833399313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94884118836481379</v>
+        <v>0.94414894941321414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94959729255567216</v>
+        <v>0.93959180618295735</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94487765189701767</v>
+        <v>0.93621085820507877</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94107191760297637</v>
+        <v>0.93375481209997702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94041611836650829</v>
+        <v>0.93339857891891986</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93942470327237315</v>
+        <v>0.93297689248913929</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93851579625885007</v>
+        <v>0.93387043447338036</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93921268952988923</v>
+        <v>0.93544760497305379</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.93693895048008802</v>
+        <v>0.93800745504114647</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.93443263734554027</v>
+        <v>0.94148170543665011</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.93072487066727838</v>
+        <v>0.95157019721048797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.92961595870879143</v>
+        <v>0.95652768513969233</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99489111806350017</v>
+        <v>0.9939522330652566</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98777402027843209</v>
+        <v>0.98184276925998537</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98637552059433764</v>
+        <v>0.98044429434094149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9851110110434127</v>
+        <v>0.97917979125045207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97086295917169141</v>
+        <v>0.97039017938065053</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95784158813010389</v>
+        <v>0.9573688267384477</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95138450856565016</v>
+        <v>0.95091175849441623</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94603483381967779</v>
+        <v>0.94563594339254631</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94218566039293816</v>
+        <v>0.94397760797544172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9286079982525719</v>
+        <v>0.9377106326693383</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91918007508806387</v>
+        <v>0.93376319251231743</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.91261040048731901</v>
+        <v>0.93270629338903865</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.90495710919646299</v>
+        <v>0.93961332768670958</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.90327779371152639</v>
+        <v>0.94304843805648475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.90275778152385655</v>
+        <v>0.94363865973338423</v>
       </c>
     </row>
   </sheetData>
